--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H2">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I2">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J2">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N2">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q2">
-        <v>0.06544779188700001</v>
+        <v>0.01479286007466667</v>
       </c>
       <c r="R2">
-        <v>0.5890301269830001</v>
+        <v>0.133135740672</v>
       </c>
       <c r="S2">
-        <v>1.852769340194144E-05</v>
+        <v>2.906533730101722E-06</v>
       </c>
       <c r="T2">
-        <v>1.852769340194144E-05</v>
+        <v>2.906533730101723E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H3">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I3">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J3">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P3">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q3">
-        <v>44.55063921845032</v>
+        <v>3.555024851692333</v>
       </c>
       <c r="R3">
-        <v>400.955752966053</v>
+        <v>31.995223665231</v>
       </c>
       <c r="S3">
-        <v>0.01261189354906121</v>
+        <v>0.0006984991131288363</v>
       </c>
       <c r="T3">
-        <v>0.01261189354906121</v>
+        <v>0.0006984991131288365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H4">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I4">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J4">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N4">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O4">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P4">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q4">
-        <v>0.131429341577</v>
+        <v>0.01246021996966667</v>
       </c>
       <c r="R4">
-        <v>1.182864074193</v>
+        <v>0.112141979727</v>
       </c>
       <c r="S4">
-        <v>3.720648893643385E-05</v>
+        <v>2.448211464417525E-06</v>
       </c>
       <c r="T4">
-        <v>3.720648893643384E-05</v>
+        <v>2.448211464417526E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.276989</v>
+        <v>0.022103</v>
       </c>
       <c r="H5">
-        <v>0.830967</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="I5">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371027</v>
       </c>
       <c r="J5">
-        <v>0.0126770351133645</v>
+        <v>0.0007043476645371028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N5">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O5">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P5">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q5">
-        <v>0.033230924308</v>
+        <v>0.002513236350333333</v>
       </c>
       <c r="R5">
-        <v>0.299078318772</v>
+        <v>0.022619127153</v>
       </c>
       <c r="S5">
-        <v>9.407381964922228E-06</v>
+        <v>4.938062137470858E-07</v>
       </c>
       <c r="T5">
-        <v>9.407381964922224E-06</v>
+        <v>4.938062137470861E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H6">
         <v>17.481421</v>
       </c>
       <c r="I6">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J6">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N6">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q6">
-        <v>1.376854199381</v>
+        <v>3.899926326129778</v>
       </c>
       <c r="R6">
-        <v>12.391687794429</v>
+        <v>35.099336935168</v>
       </c>
       <c r="S6">
-        <v>0.0003897752961528684</v>
+        <v>0.0007662661145034394</v>
       </c>
       <c r="T6">
-        <v>0.0003897752961528684</v>
+        <v>0.0007662661145034395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H7">
         <v>17.481421</v>
       </c>
       <c r="I7">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J7">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P7">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q7">
-        <v>937.2315386734265</v>
+        <v>937.2315386734263</v>
       </c>
       <c r="R7">
-        <v>8435.083848060838</v>
+        <v>8435.083848060836</v>
       </c>
       <c r="S7">
-        <v>0.2653219932179294</v>
+        <v>0.1841493170569879</v>
       </c>
       <c r="T7">
-        <v>0.2653219932179294</v>
+        <v>0.1841493170569879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H8">
         <v>17.481421</v>
       </c>
       <c r="I8">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J8">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N8">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O8">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P8">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q8">
-        <v>2.764937298184333</v>
+        <v>3.284959071051444</v>
       </c>
       <c r="R8">
-        <v>24.884435683659</v>
+        <v>29.56463163946299</v>
       </c>
       <c r="S8">
-        <v>0.0007827293948251164</v>
+        <v>0.0006454359937038603</v>
       </c>
       <c r="T8">
-        <v>0.0007827293948251162</v>
+        <v>0.0006454359937038603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.827140333333333</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H9">
         <v>17.481421</v>
       </c>
       <c r="I9">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="J9">
-        <v>0.2666924051719354</v>
+        <v>0.1856912041222136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N9">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O9">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P9">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q9">
-        <v>0.6990936800706667</v>
+        <v>0.6625788763618887</v>
       </c>
       <c r="R9">
-        <v>6.291843120636001</v>
+        <v>5.963209887256999</v>
       </c>
       <c r="S9">
-        <v>0.0001979072630280297</v>
+        <v>0.0001301849570183353</v>
       </c>
       <c r="T9">
-        <v>0.0001979072630280296</v>
+        <v>0.0001301849570183353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H10">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I10">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J10">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N10">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q10">
-        <v>3.070416539931</v>
+        <v>10.371559106304</v>
       </c>
       <c r="R10">
-        <v>27.633748859379</v>
+        <v>93.344031956736</v>
       </c>
       <c r="S10">
-        <v>0.0008692078774225409</v>
+        <v>0.002037826777516891</v>
       </c>
       <c r="T10">
-        <v>0.0008692078774225408</v>
+        <v>0.002037826777516891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H11">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I11">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J11">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P11">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q11">
-        <v>2090.047892784587</v>
+        <v>2492.496392692166</v>
       </c>
       <c r="R11">
-        <v>18810.43103506129</v>
+        <v>22432.4675342295</v>
       </c>
       <c r="S11">
-        <v>0.5916741487588426</v>
+        <v>0.4897311811880903</v>
       </c>
       <c r="T11">
-        <v>0.5916741487588425</v>
+        <v>0.4897311811880904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H12">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I12">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J12">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N12">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O12">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P12">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q12">
-        <v>6.165873783901</v>
+        <v>8.736100202438999</v>
       </c>
       <c r="R12">
-        <v>55.492864055109</v>
+        <v>78.624901821951</v>
       </c>
       <c r="S12">
-        <v>0.001745504557593452</v>
+        <v>0.001716488209837244</v>
       </c>
       <c r="T12">
-        <v>0.001745504557593452</v>
+        <v>0.001716488209837245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.994657</v>
+        <v>15.496839</v>
       </c>
       <c r="H13">
-        <v>38.983971</v>
+        <v>46.490517</v>
       </c>
       <c r="I13">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="J13">
-        <v>0.5947301989433798</v>
+        <v>0.4938317132225258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N13">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O13">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P13">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q13">
-        <v>1.558994989604</v>
+        <v>1.762078409721</v>
       </c>
       <c r="R13">
-        <v>14.030954906436</v>
+        <v>15.858705687489</v>
       </c>
       <c r="S13">
-        <v>0.000441337749521282</v>
+        <v>0.0003462170470813091</v>
       </c>
       <c r="T13">
-        <v>0.0004413377495212818</v>
+        <v>0.0003462170470813092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H14">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I14">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J14">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N14">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O14">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P14">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q14">
-        <v>0.6499864153229999</v>
+        <v>6.715935272561779</v>
       </c>
       <c r="R14">
-        <v>5.849877737907</v>
+        <v>60.44341745305601</v>
       </c>
       <c r="S14">
-        <v>0.0001840054289275967</v>
+        <v>0.001319561754816407</v>
       </c>
       <c r="T14">
-        <v>0.0001840054289275966</v>
+        <v>0.001319561754816407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H15">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I15">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J15">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>482.517059</v>
       </c>
       <c r="O15">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P15">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q15">
-        <v>442.4490032596595</v>
+        <v>1613.975706915638</v>
       </c>
       <c r="R15">
-        <v>3982.041029336936</v>
+        <v>14525.78136224074</v>
       </c>
       <c r="S15">
-        <v>0.1252534156162701</v>
+        <v>0.3171175018243236</v>
       </c>
       <c r="T15">
-        <v>0.1252534156162701</v>
+        <v>0.3171175018243237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H16">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I16">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J16">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N16">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O16">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P16">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q16">
-        <v>1.305273778333</v>
+        <v>5.656920323438445</v>
       </c>
       <c r="R16">
-        <v>11.747464004997</v>
+        <v>50.912282910946</v>
       </c>
       <c r="S16">
-        <v>0.0003695115094532494</v>
+        <v>0.001111484165035089</v>
       </c>
       <c r="T16">
-        <v>0.0003695115094532493</v>
+        <v>0.001111484165035089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.750881</v>
+        <v>10.03472733333333</v>
       </c>
       <c r="H17">
-        <v>8.252642999999999</v>
+        <v>30.104182</v>
       </c>
       <c r="I17">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="J17">
-        <v>0.1259003607713204</v>
+        <v>0.3197727349907235</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N17">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O17">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P17">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q17">
-        <v>0.330028695332</v>
+        <v>1.141005361254889</v>
       </c>
       <c r="R17">
-        <v>2.970258257988</v>
+        <v>10.269048251294</v>
       </c>
       <c r="S17">
-        <v>9.34282166694245E-05</v>
+        <v>0.0002241872465483294</v>
       </c>
       <c r="T17">
-        <v>9.342821666942447E-05</v>
+        <v>0.0002241872465483295</v>
       </c>
     </row>
   </sheetData>
